--- a/target/test-classes/rediff.xlsx
+++ b/target/test-classes/rediff.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="16620" windowHeight="6345" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="16620" windowHeight="6345" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
     <sheet name="Search" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Cart" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="43">
   <si>
     <t>Uname</t>
   </si>
@@ -156,6 +156,18 @@
   </si>
   <si>
     <t>jaico</t>
+  </si>
+  <si>
+    <t>GB_12</t>
+  </si>
+  <si>
+    <t>Addbook</t>
+  </si>
+  <si>
+    <t>bookname</t>
+  </si>
+  <si>
+    <t>Flood and fire</t>
   </si>
 </sst>
 </file>
@@ -233,7 +245,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -244,6 +256,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -770,8 +785,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -888,12 +903,54 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="11" customWidth="1"/>
+    <col min="4" max="4" width="23" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" s="2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>